--- a/config/data.xlsx
+++ b/config/data.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="滚动计划" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -33,10 +36,16 @@
     <t>外采订单</t>
   </si>
   <si>
-    <t>上海测试有限公司2</t>
+    <t>上海测试有限公司</t>
   </si>
   <si>
     <t>01000006</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>04000288</t>
   </si>
 </sst>
 </file>
@@ -45,9 +54,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,7 +68,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,8 +89,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,7 +159,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,15 +174,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,59 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,29 +210,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,19 +220,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,19 +340,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,133 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,15 +419,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,16 +439,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,11 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +494,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,141 +531,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1010,50 +1025,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="12.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="20.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.775" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>100</v>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1107,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1089,7 +1124,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
